--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,63 @@
           <t>issue_type</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>how</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1269f1fb-9c21-42a9-ae5e-c80f92622adc</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Bk6qQGWRb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Then how bootstrap dqn extend the idea to deep learning, followed by the noisy net, bbq, shallow UBE and LS-DQN.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,10 +481,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -514,6 +512,48 @@
       <c r="H2" t="inlineStr">
         <is>
           <t>Then how bootstrap dqn extend the idea to deep learning, followed by the noisy net, bbq, shallow UBE and LS-DQN.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>should be</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>c8048836-24fe-4e27-95aa-c7cfb58ac155</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>rkc_hGb0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>The structure of the global policies used in the experiments should be mentioned somewhere.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,10 +521,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B3" t="n">
+        <v>4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -554,6 +552,48 @@
       <c r="H3" t="inlineStr">
         <is>
           <t>The structure of the global policies used in the experiments should be mentioned somewhere.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>does not; any; strong</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1a2deef4-16ae-43c8-afd3-8fd2e076505e</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>rJr4kfWCb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Overall, the paper does not provide any insight beyond: i tried this, i tried that and this works better than that; a strong reject.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +561,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B4" t="n">
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -594,6 +592,48 @@
       <c r="H4" t="inlineStr">
         <is>
           <t>Overall, the paper does not provide any insight beyond: i tried this, i tried that and this works better than that; a strong reject.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>what about</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>53dcf950-aee9-43ba-bb93-9e7c5cd5833d</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>By5SY2gA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>For instance, what about averaging WordNet path-based distance metrics and distance in word embedding space (for word similarity), and other ways of applying the affect data to email tone prediction?</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,39 +601,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>what about</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>53dcf950-aee9-43ba-bb93-9e7c5cd5833d</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>By5SY2gA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>For instance, what about averaging WordNet path-based distance metrics and distance in word embedding space (for word similarity), and other ways of applying the affect data to email tone prediction?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>what about</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>QSN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MET</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>53dcf950-aee9-43ba-bb93-9e7c5cd5833d</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>By5SY2gA-_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>For instance, what about averaging WordNet path-based distance metrics and distance in word embedding space (for word similarity), and other ways of applying the affect data to email tone prediction?</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>42be9703-0e9b-4ce8-962d-60bf1f233ce8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SJCPLLpaW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The results show that DeePa achieves speedups compared to PyTorch and TensorFlow with all of the tested minibatch sizes.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,39 +641,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>42be9703-0e9b-4ce8-962d-60bf1f233ce8</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>SJCPLLpaW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The results show that DeePa achieves speedups compared to PyTorch and TensorFlow with all of the tested minibatch sizes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>APC</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>did</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>RES</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>42be9703-0e9b-4ce8-962d-60bf1f233ce8</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>SJCPLLpaW_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>The results show that DeePa achieves speedups compared to PyTorch and TensorFlow with all of the tested minibatch sizes.</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,39 +681,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>did</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>did</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>FBK</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>dc9804e9-fe90-49ab-88bb-ac97478c1b97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>i87JIQTAnB8AQ_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>As you suggested, I did run comparison tests and I will present the results here.</t>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>does not</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>f5b44bd7-9311-4cfc-b939-3b86c20706ac</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SkYXvCR6W_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>On top of this, I do not enjoy the style the paper is written in, the language is convoluted.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,10 +721,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B8" t="n">
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -754,6 +752,48 @@
       <c r="H8" t="inlineStr">
         <is>
           <t>On top of this, I do not enjoy the style the paper is written in, the language is convoluted.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">thank </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>41c93df3-3a59-4ce4-b94b-f420b7540586</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SJ19eUg0-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Thank the reviewer for the thoughtful feedback.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,10 +761,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B9" t="n">
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -794,6 +792,48 @@
       <c r="H9" t="inlineStr">
         <is>
           <t>Thank the reviewer for the thoughtful feedback.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>why; not</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>a5228610-fe6d-4383-b598-a7c34c3b8714</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>HyRnez-RW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Why is this result not compared to in Table 1?</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,39 +801,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>why; not</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>a5228610-fe6d-4383-b598-a7c34c3b8714</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>HyRnez-RW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Why is this result not compared to in Table 1?</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>why; not</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>QSN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>a5228610-fe6d-4383-b598-a7c34c3b8714</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>HyRnez-RW_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Why is this result not compared to in Table 1?</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>did not</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>d3fb2dcb-ee08-4432-9f4b-c252dbb3433f</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SJ3dBGZ0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>We evaluate our method on NLP task for two reasons: 1) they are particularly well-suited for evaluating our method (naturally large output spaces) 2) we did not dispose of the computational resources to tackle tasks from other domains such as vision (e.g. Flickr100M) which requires hundreds of GPUs for weeks.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,39 +841,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>did not</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>d3fb2dcb-ee08-4432-9f4b-c252dbb3433f</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>SJ3dBGZ0Z_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>We evaluate our method on NLP task for two reasons: 1) they are particularly well-suited for evaluating our method (naturally large output spaces) 2) we did not dispose of the computational resources to tackle tasks from other domains such as vision (e.g. Flickr100M) which requires hundreds of GPUs for weeks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>did not</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>FBK</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MET</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>d3fb2dcb-ee08-4432-9f4b-c252dbb3433f</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>SJ3dBGZ0Z_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>We evaluate our method on NLP task for two reasons: 1) they are particularly well-suited for evaluating our method (naturally large output spaces) 2) we did not dispose of the computational resources to tackle tasks from other domains such as vision (e.g. Flickr100M) which requires hundreds of GPUs for weeks.</t>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not too surprisingly; do not;</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>afe80f3f-3501-40b4-a3d0-1ad1f86c76ec</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>r1BRfhiab_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Not too surprisingly, the standard multiclass losses do not have the desired property, however approaches that reduce multi-class to binary classification at training time do, namely unnormalized models with penalized log Z (self-normalization), the NCE approach, as well as (the natural in the proposed setting) binary classification loss.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -881,10 +881,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B12" t="n">
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -914,6 +912,48 @@
       <c r="H12" t="inlineStr">
         <is>
           <t>Not too surprisingly, the standard multiclass losses do not have the desired property, however approaches that reduce multi-class to binary classification at training time do, namely unnormalized models with penalized log Z (self-normalization), the NCE approach, as well as (the natural in the proposed setting) binary classification loss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>absolutely</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>77474e59-42ef-43e4-850b-a07d6b41a266</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Syg-YfWCW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>You absolutely know this but you hide these results.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -921,10 +921,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -954,6 +952,48 @@
       <c r="H13" t="inlineStr">
         <is>
           <t>You absolutely know this but you hide these results.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SUG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>THE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3a6bf25f-9f71-48b7-a40b-7e968e5f9337</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ry-TW-WAb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>I suggest to change it to e.g. 'from the true to the approximate posterior' to avoid confusion.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,39 +961,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>suggest</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SUG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>THE</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3a6bf25f-9f71-48b7-a40b-7e968e5f9337</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ry-TW-WAb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>I suggest to change it to e.g. 'from the true to the approximate posterior' to avoid confusion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>suggest</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SUG</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>THE</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3a6bf25f-9f71-48b7-a40b-7e968e5f9337</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>ry-TW-WAb_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>I suggest to change it to e.g. 'from the true to the approximate posterior' to avoid confusion.</t>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>well carried; very thorough</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ea04c829-c996-4167-8585-03efb193cd41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ByOExmWAb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>The experiments were well carried through and very thorough.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B15" t="n">
+        <v>4</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1034,6 +1032,48 @@
       <c r="H15" t="inlineStr">
         <is>
           <t>The experiments were well carried through and very thorough.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">does not; </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4cbdf296-0ef7-4a60-9d08-bf70fb941ab3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SJTB5GZCb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>The paper does not sufficiently discuss and compare the relevant neuroscience literature and related work.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1041,39 +1041,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">does not; </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4cbdf296-0ef7-4a60-9d08-bf70fb941ab3</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>SJTB5GZCb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>The paper does not sufficiently discuss and compare the relevant neuroscience literature and related work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">does not; </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DFT</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>WRI</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4cbdf296-0ef7-4a60-9d08-bf70fb941ab3</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>SJTB5GZCb_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>The paper does not sufficiently discuss and compare the relevant neuroscience literature and related work.</t>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>can</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9cb2103f-10a8-4188-b35f-b6e342d90889</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>rJwelMbR-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>The authors show through several experiments that the divide and conquer (DnC) technique can solve more complex tasks than can be solved with conventional policy gradient methods (TRPO is used as the baseline).</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,10 +1081,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B17" t="n">
+        <v>3</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1114,6 +1112,48 @@
       <c r="H17" t="inlineStr">
         <is>
           <t>The authors show through several experiments that the divide and conquer (DnC) technique can solve more complex tasks than can be solved with conventional policy gradient methods (TRPO is used as the baseline).</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>thank</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>e27c53be-a9c3-4697-b8f8-f90bcc73c090</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>SJaP_-xAb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>We thank everybody again for their useful suggestions and we uploaded a revision of the paper.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,10 +1121,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B18" t="n">
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1154,6 +1152,48 @@
       <c r="H18" t="inlineStr">
         <is>
           <t>We thank everybody again for their useful suggestions and we uploaded a revision of the paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2bb8b329-99fa-4c06-a5b4-7897e3cce401</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>S1PWi_lC-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Each network is trained with 50 epochs.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1161,10 +1161,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B19" t="n">
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1194,6 +1192,48 @@
       <c r="H19" t="inlineStr">
         <is>
           <t>Each network is trained with 50 epochs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No clear novelty</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4efacd8b-a5d8-471d-9660-f5eb687b96fc</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Byni8NLHf_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>No clear novelty</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1201,10 +1201,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="B20" t="n">
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1234,6 +1232,48 @@
       <c r="H20" t="inlineStr">
         <is>
           <t>No clear novelty</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9386b51e-53f7-4a13-b66e-3217e88401e6</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>HyRnez-RW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>"Krasner" misspelled multiple times as "Kramer"</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1241,39 +1241,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9386b51e-53f7-4a13-b66e-3217e88401e6</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>HyRnez-RW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>"Krasner" misspelled multiple times as "Kramer"</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>DFT</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>WRI</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>9386b51e-53f7-4a13-b66e-3217e88401e6</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>HyRnez-RW_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>"Krasner" misspelled multiple times as "Kramer"</t>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>55e6f9d2-bdcc-4319-8467-87a8dbd0172d</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Byt3oJ-0W_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>The authors propose a new method that approximates the discrete max-weight matching by a continuous Sinkhorn operator, which looks like an analog of softmax operator on matrices.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,39 +1281,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>55e6f9d2-bdcc-4319-8467-87a8dbd0172d</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Byt3oJ-0W_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>The authors propose a new method that approximates the discrete max-weight matching by a continuous Sinkhorn operator, which looks like an analog of softmax operator on matrices.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SMY</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>MET</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>55e6f9d2-bdcc-4319-8467-87a8dbd0172d</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Byt3oJ-0W_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>The authors propose a new method that approximates the discrete max-weight matching by a continuous Sinkhorn operator, which looks like an analog of softmax operator on matrices.</t>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>01473e7f-4f45-41be-bd3f-03c0ff83190e</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>H1u8fMW0b_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>The citations are in non-standard format (section 1.2: Kalman (1960)).</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,10 +1321,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B23" t="n">
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1354,6 +1352,48 @@
       <c r="H23" t="inlineStr">
         <is>
           <t>The citations are in non-standard format (section 1.2: Kalman (1960)).</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>does not</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>b49eb73e-9ff0-45de-a177-7d78dc315c92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2rHk2kZ5knTJ6_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cons: - it does not seem to involve any learning, it clearly does not fit at ICLR.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1361,10 +1361,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B24" t="n">
+        <v>2</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1394,6 +1392,48 @@
       <c r="H24" t="inlineStr">
         <is>
           <t>Cons: - it does not seem to involve any learning, it clearly does not fit at ICLR.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>91b1b71f-4957-400a-bdb5-bced2ed448de</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>S1CChZ-CZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>It took us as a few weeks to reply because we took the time to implement as much as possible of the feedback.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1401,39 +1401,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>91b1b71f-4957-400a-bdb5-bced2ed448de</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>S1CChZ-CZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>It took us as a few weeks to reply because we took the time to implement as much as possible of the feedback.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>FBK</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>OTH</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>91b1b71f-4957-400a-bdb5-bced2ed448de</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>S1CChZ-CZ_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>It took us as a few weeks to reply because we took the time to implement as much as possible of the feedback.</t>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>f1a2d8e0-a083-4e7a-9e83-7f61c3c0d7bb</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>HJewuJWCZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Is accuracy stable, can it drop back down below the threshold in the next epoch?</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1441,39 +1441,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>f1a2d8e0-a083-4e7a-9e83-7f61c3c0d7bb</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>HJewuJWCZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Is accuracy stable, can it drop back down below the threshold in the next epoch?</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>QSN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>EXP</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>f1a2d8e0-a083-4e7a-9e83-7f61c3c0d7bb</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>HJewuJWCZ_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Is accuracy stable, can it drop back down below the threshold in the next epoch?</t>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SUG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7e3af7f2-ed39-457b-b159-8a754cc477a9</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>HkwZSG-CZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>In general, computational wall time of MoS is actually sub-linear w.r.t. the number of mixture components.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1481,10 +1481,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B27" t="n">
+        <v>3</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1514,6 +1512,48 @@
       <c r="H27" t="inlineStr">
         <is>
           <t>In general, computational wall time of MoS is actually sub-linear w.r.t. the number of mixture components.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>appealing;important</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>f913699b-da49-47c6-8043-88c593733ae2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BJyy3a0Ez_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>The idea of model-parallelism (as opposed to data parallelism) is appealing and an important open problem.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1521,39 +1521,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>appealing;important</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>f913699b-da49-47c6-8043-88c593733ae2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>BJyy3a0Ez_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>The idea of model-parallelism (as opposed to data parallelism) is appealing and an important open problem.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>appealing;important</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DIS</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>MET</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>f913699b-da49-47c6-8043-88c593733ae2</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>BJyy3a0Ez_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>The idea of model-parallelism (as opposed to data parallelism) is appealing and an important open problem.</t>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>elaborate</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9b81a0cf-ae6f-4476-b619-1b75e1becf94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>B1ae1lZRb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>We will elaborate on this aspect in the final version of the paper.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,10 +1561,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B29" t="n">
+        <v>4</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1594,6 +1592,48 @@
       <c r="H29" t="inlineStr">
         <is>
           <t>We will elaborate on this aspect in the final version of the paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>insightful</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7f314748-ac5a-4a11-8786-6125314f9d6d</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Sy2ogebAW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>We would like to thank all reviewers for their detailed and insightful feedback.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,10 +1601,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="B30" t="n">
+        <v>5</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1634,6 +1632,48 @@
       <c r="H30" t="inlineStr">
         <is>
           <t>We would like to thank all reviewers for their detailed and insightful feedback.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>are not properly</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>74483628-1e12-4bb7-acfc-2ccaf38e6d81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>HyIFzx-0b_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Acronyms are not properly defined.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,10 +1641,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B31" t="n">
+        <v>3</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1674,6 +1672,48 @@
       <c r="H31" t="inlineStr">
         <is>
           <t>Acronyms are not properly defined.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>aa721c36-81b2-451c-915e-fe15286fe992</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>SygwwGbRW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>This is NOT a proper navigation agent.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1681,10 +1681,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B32" t="n">
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1714,6 +1712,48 @@
       <c r="H32" t="inlineStr">
         <is>
           <t>This is NOT a proper navigation agent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>d4ad31e6-de82-4ee8-af90-c18d97ed2c36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Bk7wvW-C-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>We will update our paper very soon.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1721,10 +1721,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B33" t="n">
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1754,6 +1752,48 @@
       <c r="H33" t="inlineStr">
         <is>
           <t>We will update our paper very soon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2e6daeb6-f5b1-42e4-9927-e16202e5fb2e</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>H1cWzoxA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>For example ,when I use the cr dataset, "python sc_main.py --network_type exp_context_fusion --context_fusion_method wblock --model_dir_suffix training --dataset_type cr --gpu 0 " the result is not the 84.48 as the paper,I could only get 84.30 after several times.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,39 +1761,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>QSN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2e6daeb6-f5b1-42e4-9927-e16202e5fb2e</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>H1cWzoxA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>For example ,when I use the cr dataset, "python sc_main.py --network_type exp_context_fusion --context_fusion_method wblock --model_dir_suffix training --dataset_type cr --gpu 0 " the result is not the 84.48 as the paper,I could only get 84.30 after several times.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>QSN</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>RES</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2e6daeb6-f5b1-42e4-9927-e16202e5fb2e</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>H1cWzoxA-_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>For example ,when I use the cr dataset, "python sc_main.py --network_type exp_context_fusion --context_fusion_method wblock --model_dir_suffix training --dataset_type cr --gpu 0 " the result is not the 84.48 as the paper,I could only get 84.30 after several times.</t>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>do not</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>b3917550-3902-443d-ae6f-4c206bcc883a</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>HkJ1rgbCb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>However, these selections do not seem to directly incorporate the competing/augmenting effects of having different subgraphs within a molecule.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1801,10 +1801,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B35" t="n">
+        <v>3</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1834,6 +1832,48 @@
       <c r="H35" t="inlineStr">
         <is>
           <t>However, these selections do not seem to directly incorporate the competing/augmenting effects of having different subgraphs within a molecule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>d3d18e54-3fa0-4f4c-98ec-51cec5852681</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>HknbyQbC-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>- Added suggested references and updated section 2 to include more comprehensive analysis for related work.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1841,10 +1841,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B36" t="n">
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1874,6 +1872,48 @@
       <c r="H36" t="inlineStr">
         <is>
           <t>- Added suggested references and updated section 2 to include more comprehensive analysis for related work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0c8a854c-e7df-48dd-93a0-b6771319a745</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>H1Ww66x0-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>- the proposed approach to maintain the budget is simplistic</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1881,10 +1881,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B37" t="n">
+        <v>3</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1914,6 +1912,48 @@
       <c r="H37" t="inlineStr">
         <is>
           <t>- the proposed approach to maintain the budget is simplistic</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>d0296b92-10f5-497e-8726-aae675ac805b</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>rJl3yM-Ab_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>The new method is motivated well and departs from prior work.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1921,37 +1921,77 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>well</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>d0296b92-10f5-497e-8726-aae675ac805b</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>rJl3yM-Ab_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>The new method is motivated well and departs from prior work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>well</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>SMY</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>MET</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>d0296b92-10f5-497e-8726-aae675ac805b</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>rJl3yM-Ab_annotated.xlsx</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>The new method is motivated well and departs from prior work.</t>
         </is>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1961,10 +1961,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B39" t="n">
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1994,6 +1992,48 @@
       <c r="H39" t="inlineStr">
         <is>
           <t>The new method is motivated well and departs from prior work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>necessary;sufficient</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>APC</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>df7b0ece-3727-4ec6-95ce-2a2839e398ed</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>SkhQHMW0W_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>This is necessary to get an idea of total amount of communication that was sufficient to reach perplexity 72.24 at the end of 40-th epoch.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,10 +2001,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B40" t="n">
+        <v>3</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2034,6 +2032,48 @@
       <c r="H40" t="inlineStr">
         <is>
           <t>This is necessary to get an idea of total amount of communication that was sufficient to reach perplexity 72.24 at the end of 40-th epoch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>however</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>42b1e2ab-785d-481e-b197-1cf6913a8b3e</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>SJQO7UJCW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>However, our main point of the paper is to demonstrate the effectiveness of proposed method against our baseline model shown in Table 1 and 2.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2041,10 +2041,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B41" t="n">
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2074,6 +2072,48 @@
       <c r="H41" t="inlineStr">
         <is>
           <t>However, our main point of the paper is to demonstrate the effectiveness of proposed method against our baseline model shown in Table 1 and 2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>cf97de89-8b46-4ca2-a071-801296a106cf</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>SkYXvCR6W_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Some important implementation details are missing (activation functions, loss function used), and others have to be deduced by observing the output dimensions of the individual layers of the network.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2081,10 +2081,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B42" t="n">
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2114,6 +2112,48 @@
       <c r="H42" t="inlineStr">
         <is>
           <t>Some important implementation details are missing (activation functions, loss function used), and others have to be deduced by observing the output dimensions of the individual layers of the network.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>again wrong</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>295c014b-37cb-453e-93b8-ae293d0d968b</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BkiIkBJ0b_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>The other part of the criticism that we use a "straw man" is again wrong because we do not intend to show pathology with Mirowski et al. paper, experiments or claims.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,39 +2121,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>again wrong</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>295c014b-37cb-453e-93b8-ae293d0d968b</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>BkiIkBJ0b_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>The other part of the criticism that we use a "straw man" is again wrong because we do not intend to show pathology with Mirowski et al. paper, experiments or claims.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>again wrong</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>why</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>FBK</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>MET</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>295c014b-37cb-453e-93b8-ae293d0d968b</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>BkiIkBJ0b_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>The other part of the criticism that we use a "straw man" is again wrong because we do not intend to show pathology with Mirowski et al. paper, experiments or claims.</t>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>77ff87fb-cfc5-44ac-a4b7-cb33b05fed6f</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ByQpn1ZA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>If we know the regularization is fundamentally and mathematically wrong, why do we investigate its performance?</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2161,39 +2161,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>why</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>77ff87fb-cfc5-44ac-a4b7-cb33b05fed6f</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>ByQpn1ZA-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>If we know the regularization is fundamentally and mathematically wrong, why do we investigate its performance?</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>why</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>FBK</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>EXP</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>77ff87fb-cfc5-44ac-a4b7-cb33b05fed6f</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>ByQpn1ZA-_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>If we know the regularization is fundamentally and mathematically wrong, why do we investigate its performance?</t>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>very limited</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>17635cfa-5d3f-4715-99a5-e710de1fbea7</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>S1XXq6lRW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Technical contribution of the paper is very limited.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,10 +2201,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B45" t="n">
+        <v>2</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2234,6 +2232,48 @@
       <c r="H45" t="inlineStr">
         <is>
           <t>Technical contribution of the paper is very limited.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RES</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>18e2478f-5f8b-460a-bbaf-4b86b95999fd</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>B1IDRdeCW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>This paper presents three observations to understand binary network in Courbariaux, Hubara et al. (2016).</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2241,10 +2241,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B46" t="n">
+        <v>3</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2274,6 +2272,48 @@
       <c r="H46" t="inlineStr">
         <is>
           <t>This paper presents three observations to understand binary network in Courbariaux, Hubara et al. (2016).</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>will</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FBK</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>92b80f86-ee70-4a78-8469-1a9c33b052ed</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>7Y52YHDS2X7ae_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>We will include this description in the new version of the paper.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2281,10 +2281,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B47" t="n">
+        <v>4</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2314,6 +2312,48 @@
       <c r="H47" t="inlineStr">
         <is>
           <t>We will include this description in the new version of the paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>so rude and misleading;willful misinterpretations</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>f6e31c12-680e-4edf-b736-d4a426f6f32f</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Syg-YfWCW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>It is incredible that the commenter continues to be so rude and misleading (should OpenReview have a moderating system?), and continues to frame this interaction as an attempt to convince *them* rather than to correct the constant series of willful misinterpretations and falsehoods that they manage to state about our work in every single interaction, in the hope that they do not mislead others.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,10 +2321,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="B48" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2354,6 +2352,48 @@
       <c r="H48" t="inlineStr">
         <is>
           <t>It is incredible that the commenter continues to be so rude and misleading (should OpenReview have a moderating system?), and continues to frame this interaction as an attempt to convince *them* rather than to correct the constant series of willful misinterpretations and falsehoods that they manage to state about our work in every single interaction, in the hope that they do not mislead others.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3bf3a8cd-f7a3-492e-815a-c1d9e74634b1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>ByCPHrgCW_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>The problem scenario states that the model/weights is private, but later on it ceases to be so (weights are not encrypted).</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2361,10 +2361,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B49" t="n">
+        <v>3</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2394,6 +2392,48 @@
       <c r="H49" t="inlineStr">
         <is>
           <t>The problem scenario states that the model/weights is private, but later on it ceases to be so (weights are not encrypted).</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>would like to thank;carefully</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>OTH</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>658343d9-2c6f-4c77-9518-16756d4b8755</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SylJ1D1C-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>First, we would like to thank the reviewer for carefully evaluating our paper.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2401,10 +2401,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="B50" t="n">
+        <v>5</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2434,6 +2432,48 @@
       <c r="H50" t="inlineStr">
         <is>
           <t>First, we would like to thank the reviewer for carefully evaluating our paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>would be</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SUG</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2a7301cf-d5b3-4d65-86b5-7931ca3b6163</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>r1q7n9gAb_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>It would be beneficial for the clarity if authors define what they mean by convergence (normalised weight vector, angle, whichever path seems most natural) as early in the paper as possible.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2441,10 +2441,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B51" t="n">
+        <v>4</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2474,6 +2472,48 @@
       <c r="H51" t="inlineStr">
         <is>
           <t>It would be beneficial for the clarity if authors define what they mean by convergence (normalised weight vector, angle, whichever path seems most natural) as early in the paper as possible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6dbc86e6-aac5-4bea-af0c-fc9177dfd16b</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>BkJ3ibb0-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Furthermore, we have not optimized the running time of our algorithm, as it was not the focus of this work.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2481,10 +2481,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="B52" t="n">
+        <v>3</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2514,6 +2512,48 @@
       <c r="H52" t="inlineStr">
         <is>
           <t>Furthermore, we have not optimized the running time of our algorithm, as it was not the focus of this work.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>still not</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CRT</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>WRI</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8e71ac7d-5b58-47e3-b02f-0c25e20406c1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>rJTGkKxAZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>And I am still not convinced by the quality of the paper.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2521,10 +2521,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B53" t="n">
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2554,6 +2552,48 @@
       <c r="H53" t="inlineStr">
         <is>
           <t>And I am still not convinced by the quality of the paper.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DFT</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>THE</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>a0a400ab-cd67-43a0-98e0-d641a379b0a8</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>B1QRgziT-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>I am also interested to hear more about the semantics of the spectral norm of this object (flattened filterbank), which Ian asked about below.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2561,10 +2561,8 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="B54" t="n">
+        <v>4</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2594,6 +2592,48 @@
       <c r="H54" t="inlineStr">
         <is>
           <t>I am also interested to hear more about the semantics of the spectral norm of this object (flattened filterbank), which Ian asked about below.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0ffe4b07-d72b-4753-8576-ca80ee89bdb3</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SJzMATlAZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>We avoid using k-means because it requires knowing the number of clusters a priory.</t>
         </is>
       </c>
     </row>

--- a/annotations/Sunsi Wu_20240805_045003.xlsx
+++ b/annotations/Sunsi Wu_20240805_045003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2601,39 +2601,79 @@
           <t>Sunsi Wu</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ACK</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>EXP</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0ffe4b07-d72b-4753-8576-ca80ee89bdb3</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>SJzMATlAZ_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>We avoid using k-means because it requires knowing the number of clusters a priory.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Sunsi Wu</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>ACK</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SMY</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>EXP</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0ffe4b07-d72b-4753-8576-ca80ee89bdb3</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>SJzMATlAZ_annotated.xlsx</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>We avoid using k-means because it requires knowing the number of clusters a priory.</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>e3eeb88f-0832-4aa9-a6cc-39ada0451b32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>BkJ3ibb0-_annotated.xlsx</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>This paper shows that models trained on a synthetic dataset are vulnerable to small adversarial perturbations which lie on the data manifold.</t>
         </is>
       </c>
     </row>
